--- a/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D8F1E5-7415-4170-A47D-829D2D7027D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9CA856-672F-4187-8919-13A616C87B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1600D22E-3C2C-4A1A-B8D9-9E3328F1545C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70D80604-01D7-4804-A862-773038B3BDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,98%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>43,17%</t>
   </si>
   <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>55,19%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -104,196 +104,199 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>Sí, todo o casi todo el tiempo</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>Sí, todo o casi todo el tiempo</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>70,14%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -308,100 +311,100 @@
     <t>49,92%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>50,56%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AC9C33-B042-4DFF-BACA-ABFC8D1AB973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661E84B9-C6CC-4852-9AA4-23E5385CB54D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1230,10 +1233,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1248,13 +1251,13 @@
         <v>4955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -1266,10 +1269,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -1278,13 +1281,13 @@
         <v>21880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,7 +1343,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1352,13 +1355,13 @@
         <v>7624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1367,13 +1370,13 @@
         <v>2305</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1382,13 +1385,13 @@
         <v>9930</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1406,13 @@
         <v>3529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1418,13 +1421,13 @@
         <v>1838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1433,13 +1436,13 @@
         <v>5366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1469,13 +1472,13 @@
         <v>4130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1484,13 +1487,13 @@
         <v>4130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1561,13 @@
         <v>41770</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -1573,13 +1576,13 @@
         <v>18290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -1588,13 +1591,13 @@
         <v>60060</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1612,13 @@
         <v>14434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1624,13 +1627,13 @@
         <v>7205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1639,13 +1642,13 @@
         <v>21640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1663,13 @@
         <v>9019</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -1675,13 +1678,13 @@
         <v>28063</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
@@ -1690,13 +1693,13 @@
         <v>37081</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9CA856-672F-4187-8919-13A616C87B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF614D39-2C3C-47DF-A65A-66929C392DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70D80604-01D7-4804-A862-773038B3BDE0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE5742E5-E769-4F84-B8BA-4E958F45941D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661E84B9-C6CC-4852-9AA4-23E5385CB54D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E88CC60-24EF-43AF-A180-A54D2BFA57D7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF614D39-2C3C-47DF-A65A-66929C392DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B993AF-DC08-44DF-A98F-0E1C60187C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE5742E5-E769-4F84-B8BA-4E958F45941D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F279C9D-E630-4377-9DCD-A45DB33ADDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,98%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>43,17%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>55,19%</t>
   </si>
   <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -104,28 +104,28 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -134,28 +134,28 @@
     <t>20,35%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +167,76 @@
     <t>62,66%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>47,93%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>28,15%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>33,78%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,55 +245,55 @@
     <t>68,36%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -311,100 +308,100 @@
     <t>49,92%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>50,56%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E88CC60-24EF-43AF-A180-A54D2BFA57D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF5CA21-3BC5-44AE-BB29-2CADBE430C87}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1233,10 +1230,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1251,13 +1248,13 @@
         <v>4955</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -1269,10 +1266,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -1281,13 +1278,13 @@
         <v>21880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1355,13 +1352,13 @@
         <v>7624</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1370,13 +1367,13 @@
         <v>2305</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1385,13 +1382,13 @@
         <v>9930</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,13 +1403,13 @@
         <v>3529</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1421,13 +1418,13 @@
         <v>1838</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1436,13 +1433,13 @@
         <v>5366</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1472,13 +1469,13 @@
         <v>4130</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1487,13 +1484,13 @@
         <v>4130</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,13 +1558,13 @@
         <v>41770</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -1576,13 +1573,13 @@
         <v>18290</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -1591,13 +1588,13 @@
         <v>60060</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1609,13 @@
         <v>14434</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1627,13 +1624,13 @@
         <v>7205</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1642,13 +1639,13 @@
         <v>21640</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,13 +1660,13 @@
         <v>9019</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -1678,13 +1675,13 @@
         <v>28063</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
@@ -1693,13 +1690,13 @@
         <v>37081</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B993AF-DC08-44DF-A98F-0E1C60187C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF27BBC3-F3CB-48B8-9D6D-8B4E6BEE00A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F279C9D-E630-4377-9DCD-A45DB33ADDB5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1726EA66-5A83-47E7-8503-82F154643F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -71,91 +71,91 @@
     <t>No</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,136 +164,142 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -305,103 +311,103 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF5CA21-3BC5-44AE-BB29-2CADBE430C87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D2348-1C96-4DEC-AA94-44C11B32374B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>12777</v>
+        <v>11821</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>6311</v>
+        <v>5790</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +973,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>19088</v>
+        <v>17611</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3129</v>
+        <v>3032</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1300</v>
+        <v>1167</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4429</v>
+        <v>4198</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>4063</v>
+        <v>3893</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>7008</v>
+        <v>6540</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>11071</v>
+        <v>10433</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>19969</v>
+        <v>18745</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1111,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>14619</v>
+        <v>13497</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1126,7 @@
         <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>34588</v>
+        <v>32242</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>21369</v>
+        <v>20444</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1158,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>9674</v>
+        <v>9006</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1173,7 +1179,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="7">
-        <v>31043</v>
+        <v>29451</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1194,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>7776</v>
+        <v>7623</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1209,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>4068</v>
+        <v>3705</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1224,16 +1230,16 @@
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>11844</v>
+        <v>11327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1245,46 +1251,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4955</v>
+        <v>4752</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>16925</v>
+        <v>15780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>21880</v>
+        <v>20533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>34100</v>
+        <v>32819</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1317,7 @@
         <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>30667</v>
+        <v>28491</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1332,7 @@
         <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>64767</v>
+        <v>61311</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1349,46 +1355,46 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>7624</v>
+        <v>7205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>2305</v>
+        <v>2106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>9930</v>
+        <v>9311</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,46 +1406,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3529</v>
+        <v>3507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1838</v>
+        <v>1795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>5366</v>
+        <v>5302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,43 +1460,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>4130</v>
+        <v>3789</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>4130</v>
+        <v>3788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>11153</v>
+        <v>10712</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1523,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>8273</v>
+        <v>7689</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1538,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>19426</v>
+        <v>18401</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,46 +1561,46 @@
         <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>41770</v>
+        <v>39471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>18290</v>
+        <v>16902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
       </c>
       <c r="N16" s="7">
-        <v>60060</v>
+        <v>56373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,46 +1612,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>14434</v>
+        <v>14161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>7205</v>
+        <v>6666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>21640</v>
+        <v>20827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,46 +1663,46 @@
         <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>9019</v>
+        <v>8645</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>28063</v>
+        <v>26109</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
       </c>
       <c r="N18" s="7">
-        <v>37081</v>
+        <v>34754</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>65223</v>
+        <v>62277</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1729,7 @@
         <v>84</v>
       </c>
       <c r="I19" s="7">
-        <v>53558</v>
+        <v>49677</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1744,7 @@
         <v>161</v>
       </c>
       <c r="N19" s="7">
-        <v>118781</v>
+        <v>111954</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
